--- a/СКТП и КУ сводка по ГНКТ.xlsx
+++ b/СКТП и КУ сводка по ГНКТ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Sauron\Desktop\СВОДКИ_СКТП\Апрель\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03625D53-A3DA-496D-9D68-0A9277C470C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E630D21F-F636-490A-B94C-6A212BFD26A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="857" firstSheet="43" activeTab="52" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="857" firstSheet="44" activeTab="53" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01.04.2023 06.00" sheetId="711" r:id="rId1"/>
@@ -66,7 +66,11 @@
     <sheet name="27.04.2023 06.00" sheetId="761" r:id="rId51"/>
     <sheet name="27.04.2023 18.00" sheetId="762" r:id="rId52"/>
     <sheet name="28.04.2023 06.00" sheetId="763" r:id="rId53"/>
+    <sheet name="28.04.2023 18.00" sheetId="764" r:id="rId54"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId55"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -77,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8668" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8833" uniqueCount="771">
   <si>
     <t>№ бригады</t>
   </si>
@@ -3629,6 +3633,44 @@
 '22:00-02:00 Подъём КНК-1 с промывкой азотированной тех.ж-тью Н-2120м; 
 '02:00-04:00 Подъём КНК-1 с промывкой азотированной тех.ж-тью Н-1723м (500м выше стингера). 
 04:00-06:00 Спуск КНК-1 с промывкой азотированной тех.ж-тью Н-2010м.</t>
+  </si>
+  <si>
+    <t>Ежесуточная сводка инженера СКТП и КУ по видеоконтролю флотов ГНКТ ООО "Пакер Сервис" c 06:00 28.04.2023 по 18:00 28.04.2023</t>
+  </si>
+  <si>
+    <t>06:00-14:00 Переезд 100%.
+14:00-15:00 Расстановка и подключение жил.городка. 
+Пусковая комиссия на 02:00 29.04.23</t>
+  </si>
+  <si>
+    <t>08:00-08:30 Спуск КНК-8 без циркуляции до гл.3250м. МГРП№8 жесткая посадка до 0,5т. 
+08:30-12:00 Подъём КНК-8 без циркуляции до гл.1850м.
+12:00-16:00 Подъём КНК-8 без циркуляции до гл.0м. Закрытие ЦЗ в 16:00-16,5 оборотов. Рб-0атм.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:00-16:00 Тех.отстой. Запуск  ПАУ+НКА. В.Ц.(+). Спуск КНК-1 с промывкой на азотированной тех. жидкости до гл. 3400м. СТОП ЧАС ООО НТ-Сервис Старшим инженером технологом Даутов Р.Ф проведен инструктаж по теме дикие животные(правила поведения). Спуск КНК-1 с промывкой на азотированной тех. жидкости до гл. 3770м. Подъем КНК-1 до гл3760м. Проверка Веса перед МГРП-2. Спуск КНК-1 до гл.3664м. Разгрузка 0.5тн. ОТ СВ ГТ ↓ 6,2тн.↑ 12,8тн. Приподъем КНК-1 - Затяжка. Закачка понизителя трения в V=2м3.(16лит.) Попытки освободиться (-).
+Стоп ПАУ+НКА. Дегазация скважины. Запуск НКА. Закачка понизителя трения в V=2м3.(16лит.) Закачка тех.жидкости по малому затрубу(продолжаем). Освобождение от прихвата ГТ (-). </t>
+  </si>
+  <si>
+    <t>06:00-10:00 Демонтаж (8ч) ГНКТ и оборудования 100%. Освобождение территории. ЗР-100%. ПР к УЗД.</t>
+  </si>
+  <si>
+    <t>06:00-08:00 Подъем КНК-3 с регистрацией всех параметров без закачки в интервале гл Н=400м до  0м (п.30-32 плана работ). Закрытие Ц.З. Демонтаж оборудования 40%. 
+Освобождение на 19:00.</t>
+  </si>
+  <si>
+    <t>08:00-16:00 ПГИ (SNL+DMPT и PLT).Пункты №,16(спуск до ТЗ  4230м)                                                                                                                                                                                                                                                                                                                                                                       Инженерное сопровождение Ведуший инженер ОСРСиСТ ООО "СН-КНГ" Бородаенко Д.В. Отработка на бриг.желобные. Спуск ГТ гл.3352м. Спуск ГТ гл.3660м. Спуск ГТ гл.3920м, Спуск ГТ гл.4230м на выходе газированная нефть. Общего отобрано 84,7.м3
+ПГИ (SNL+DMPT и PLT).Пункты №,17(Запись на токах с шагом 2м,время стоянки 45 сек.)                                                                                                                                                                                                                                                                                                                                                                       Инженерное сопровождение Ведуший инженер ОСРСиСТ ООО "СН-КНГ" Бородаенко Д.В. Отработка на бриг.желобные. Спуск ГТ гл.-4150м. Спуск ГТ гл.-4060м. Спуск ГТ гл.-3970м,  Спуск ГТ гл.-3904м на выходе газированная нефть. Общего отобрано 87,1.м3</t>
+  </si>
+  <si>
+    <t>08:00-16:00 Спуск КНК-1 НКА+ПАУ, Н=3366м разгрузка  (плановый забой)  на выходе азотированная тех. жидкость. Нормализация КНК-1 НКА+ПАУ Н=3366м  (плановый забой). Прокачка ВП в V=2м3 на выходе азотированная тех. жидкость.
+Нормализация КНК-1 НКА+ПАУ Н=3366м  (плановый забой) разгрузка 0,5т Прокачка ВП в V=2м3 на выходе азотированная тех. жидкость. Подъем КНК-1 НКА+ПАУ на выходе азотированная тех. жидкость.Продолжаем.</t>
+  </si>
+  <si>
+    <t>28.04.2023 15:00</t>
+  </si>
+  <si>
+    <t>06:00-14:00 Спуск КНК-1 с промывкой азотированной тех.ж-тью Н-3148м (МГРП №1)  Закачка вязкой пачки 1м3 (8л); Qнка-120л/мин; N2-16м3/мин; Ру-70атм Рраб-230атм; Вес ГТ ↓3,7тн;↑12тн. На выходе: вода+нефть+газ. Промывка азотированной тех.ж-тью Н-3148м (МГРП №1). (всего отобрано 375м3 вывезено и утилизировано 365м3).</t>
   </si>
 </sst>
 </file>
@@ -4059,6 +4101,52 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="ГНКТ"/>
+      <sheetName val="ГРП"/>
+      <sheetName val="В работе"/>
+      <sheetName val="Переезды"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="compactView"/>
+      <definedName name="dateEntry"/>
+      <definedName name="markUpOff"/>
+      <definedName name="normalView"/>
+      <definedName name="show1"/>
+      <definedName name="show10"/>
+      <definedName name="show11"/>
+      <definedName name="show14"/>
+      <definedName name="show16"/>
+      <definedName name="show17"/>
+      <definedName name="show18"/>
+      <definedName name="show19"/>
+      <definedName name="show2"/>
+      <definedName name="show22"/>
+      <definedName name="show3"/>
+      <definedName name="show4"/>
+      <definedName name="show5"/>
+      <definedName name="show6"/>
+      <definedName name="show7"/>
+      <definedName name="show8"/>
+      <definedName name="show9"/>
+      <definedName name="showThem"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -46072,8 +46160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{297CF158-948E-42F3-B5D1-1CA53347549F}">
   <dimension ref="A1:TR46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView topLeftCell="A16" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -46928,6 +47016,874 @@
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1 G24:G28 G4:G22" xr:uid="{C8DB1127-7374-43A9-91A4-94616AA29E15}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8033C5FE-2041-45A4-9018-267C958C06C0}">
+  <dimension ref="A1:TR46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.54296875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" style="3"/>
+    <col min="3" max="3" width="13.81640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="29.453125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="23.36328125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="66.36328125" style="3" customWidth="1"/>
+    <col min="7" max="9" width="20.81640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="83.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.1796875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="9.6328125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="9.453125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="50.1796875" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="20.81640625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="49" t="s">
+        <v>761</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="52"/>
+      <c r="I1" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" s="52"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="19"/>
+    </row>
+    <row r="2" spans="1:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="55"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="48"/>
+    </row>
+    <row r="4" spans="1:15" ht="387.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="7">
+        <v>45033.5</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" ht="349.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43453</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3811</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>695</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="16"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" ht="356.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>631</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="22"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="22"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" ht="279.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3806</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>697</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>767</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C12" s="1">
+        <v>54</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>674</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="11"/>
+    </row>
+    <row r="13" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="28"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="17"/>
+    </row>
+    <row r="15" spans="1:15" ht="93" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="1">
+        <v>514</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>698</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M15" s="37"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="K16" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" s="9"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:538" ht="124" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C17" s="1">
+        <v>239</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>759</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="K17" s="36" t="s">
+        <v>762</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" s="37"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="24"/>
+    </row>
+    <row r="18" spans="1:538" ht="31" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" s="16"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="1:538" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="K19" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" s="9"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="10"/>
+      <c r="QH19" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="TR19" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:538" ht="232.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2954</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="7">
+        <v>45039</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="M20" s="37"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="21" spans="1:538" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="K21" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="17"/>
+    </row>
+    <row r="22" spans="1:538" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="K22" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="17"/>
+    </row>
+    <row r="23" spans="1:538" x14ac:dyDescent="0.35">
+      <c r="K23" s="29"/>
+    </row>
+    <row r="24" spans="1:538" x14ac:dyDescent="0.35">
+      <c r="K24" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="L24" s="31"/>
+      <c r="M24" s="26">
+        <f>SUM(M4:M20)</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="26">
+        <f>SUM(N4:N20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:538" x14ac:dyDescent="0.35">
+      <c r="K25" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="L25" s="32"/>
+      <c r="M25" s="26">
+        <f>M24+M26</f>
+        <v>156</v>
+      </c>
+      <c r="N25" s="26">
+        <f>N24+N26</f>
+        <v>120.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:538" x14ac:dyDescent="0.35">
+      <c r="M26" s="20">
+        <v>156</v>
+      </c>
+      <c r="N26" s="20">
+        <v>120.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:538" x14ac:dyDescent="0.35">
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" spans="1:538" x14ac:dyDescent="0.35">
+      <c r="L31" s="4"/>
+    </row>
+    <row r="34" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H34" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K34" s="27"/>
+    </row>
+    <row r="40" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H40" s="5"/>
+    </row>
+    <row r="46" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="K46" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1 G24:G28 G4:G22" xr:uid="{E7D42062-0A31-4C13-95D8-FD84ED770CA7}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
